--- a/4519 Chugai.xlsx
+++ b/4519 Chugai.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BB5AAA-7A2E-4BB5-BEC5-72DA46BC8161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A47BF8B-D42D-45DF-ABEB-0CE2E15703F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="56820" yWindow="810" windowWidth="22515" windowHeight="19365" activeTab="1" xr2:uid="{3564809F-01A6-46D3-96C5-46308A521655}"/>
+    <workbookView xWindow="-25275" yWindow="2745" windowWidth="24870" windowHeight="17595" xr2:uid="{3564809F-01A6-46D3-96C5-46308A521655}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="120">
   <si>
     <t>Price JPY</t>
   </si>
@@ -298,6 +298,105 @@
   </si>
   <si>
     <t>Vabysmo</t>
+  </si>
+  <si>
+    <t>Vabysmo (faricimab)</t>
+  </si>
+  <si>
+    <t>AMD</t>
+  </si>
+  <si>
+    <t>NMOSD</t>
+  </si>
+  <si>
+    <t>Enspryng (satralizumab)</t>
+  </si>
+  <si>
+    <t>IL-6 mab</t>
+  </si>
+  <si>
+    <t>NHL</t>
+  </si>
+  <si>
+    <t>CD20 mab</t>
+  </si>
+  <si>
+    <t>Rituxan (rituximab)</t>
+  </si>
+  <si>
+    <t>HER2 ADC</t>
+  </si>
+  <si>
+    <t>ALK TKI</t>
+  </si>
+  <si>
+    <t>Gazyva (obinutuzumab)</t>
+  </si>
+  <si>
+    <t>HER2 mBC</t>
+  </si>
+  <si>
+    <t>NSCLC</t>
+  </si>
+  <si>
+    <t>COVID-19</t>
+  </si>
+  <si>
+    <t>Hemlibra (emicizumab)</t>
+  </si>
+  <si>
+    <t>Alecensa (alectinib)</t>
+  </si>
+  <si>
+    <t>Tecentriq (atezolizumab)</t>
+  </si>
+  <si>
+    <t>crovalimab</t>
+  </si>
+  <si>
+    <t>Avastin (bevacizumab)</t>
+  </si>
+  <si>
+    <t>ipatasertib</t>
+  </si>
+  <si>
+    <t>giredestrant</t>
+  </si>
+  <si>
+    <t>mosunetuzumab</t>
+  </si>
+  <si>
+    <t>pralsetinib</t>
+  </si>
+  <si>
+    <t>tiragolumab</t>
+  </si>
+  <si>
+    <t>delandistrogene moxeparvovec</t>
+  </si>
+  <si>
+    <t>ralmitaront</t>
+  </si>
+  <si>
+    <t>codrituzumab</t>
+  </si>
+  <si>
+    <t>DNOQ52</t>
+  </si>
+  <si>
+    <t>Celiac Disease</t>
+  </si>
+  <si>
+    <t>RG6330</t>
+  </si>
+  <si>
+    <t>KRAS G12C</t>
+  </si>
+  <si>
+    <t>RG6433</t>
+  </si>
+  <si>
+    <t>SHP2</t>
   </si>
 </sst>
 </file>
@@ -433,7 +532,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -450,13 +549,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -479,16 +577,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>29765</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>41671</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>59531</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>29765</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>41671</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>41671</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -503,8 +601,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8292703" y="59531"/>
-          <a:ext cx="0" cy="10322718"/>
+          <a:off x="8935640" y="59531"/>
+          <a:ext cx="0" cy="12197953"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -827,19 +925,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C587E22-4E4C-49B0-BEBE-68FEA42F09BE}">
-  <dimension ref="B2:K21"/>
+  <dimension ref="B2:K35"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -871,80 +970,77 @@
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11"/>
+      <c r="G3" s="10"/>
       <c r="I3" t="s">
         <v>1</v>
       </c>
       <c r="J3" s="1">
-        <v>1644.5904210000001</v>
+        <v>1644.7253820000001</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="11"/>
+      <c r="G4" s="10"/>
       <c r="I4" t="s">
         <v>2</v>
       </c>
       <c r="J4" s="1">
         <f>+J2*J3</f>
-        <v>5963284.8665460004</v>
+        <v>5963774.2351320004</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11"/>
+      <c r="G5" s="10"/>
       <c r="I5" t="s">
         <v>3</v>
       </c>
       <c r="J5" s="1">
-        <v>594550</v>
+        <f>274043+271252+1822</f>
+        <v>547117</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="11"/>
+        <v>102</v>
+      </c>
+      <c r="C6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="10"/>
       <c r="I6" t="s">
         <v>4</v>
       </c>
@@ -952,169 +1048,301 @@
         <v>0</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11"/>
+      <c r="C7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="10"/>
       <c r="I7" t="s">
         <v>5</v>
       </c>
       <c r="J7" s="1">
         <f>+J4-J5+J6</f>
-        <v>5368734.8665460004</v>
+        <v>5416657.2351320004</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" s="10"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
+      <c r="C9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="10"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
+        <v>97</v>
+      </c>
+      <c r="C10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="10"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="11"/>
+        <v>94</v>
+      </c>
+      <c r="C11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="10"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="11"/>
+      <c r="C12" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" s="10"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="11"/>
+      <c r="G13" s="10"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="11"/>
+      <c r="D14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" s="10"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="11"/>
+        <v>87</v>
+      </c>
+      <c r="C15" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" s="10"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="11"/>
+        <v>90</v>
+      </c>
+      <c r="C16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="10"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="11"/>
+        <v>65</v>
+      </c>
+      <c r="G17" s="10"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="11"/>
+        <v>66</v>
+      </c>
+      <c r="G18" s="10"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="11"/>
+        <v>67</v>
+      </c>
+      <c r="G19" s="10"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="11"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="12" t="s">
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="14"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B24" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B25" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B26" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B27" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="10"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B28" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B29" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B30" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B31" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B32" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B33" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B34" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="10"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B35" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1126,11 +1354,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{116815EA-00C2-4327-B106-FFC6B3AC13D1}">
   <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="F20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N30" sqref="N30"/>
+      <selection pane="bottomRight" activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1144,7 +1372,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1252,7 +1480,10 @@
         <f>12100+46300</f>
         <v>58400</v>
       </c>
-      <c r="N4" s="3"/>
+      <c r="N4" s="3">
+        <f>13100+44000</f>
+        <v>57100</v>
+      </c>
       <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1288,7 +1519,10 @@
         <f>10700+37700</f>
         <v>48400</v>
       </c>
-      <c r="N5" s="3"/>
+      <c r="N5" s="3">
+        <f>10600+16800</f>
+        <v>27400</v>
+      </c>
       <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1318,7 +1552,9 @@
       <c r="M6" s="3">
         <v>17700</v>
       </c>
-      <c r="N6" s="3"/>
+      <c r="N6" s="3">
+        <v>16700</v>
+      </c>
       <c r="O6" s="3"/>
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1348,7 +1584,9 @@
       <c r="M7" s="3">
         <v>15000</v>
       </c>
-      <c r="N7" s="3"/>
+      <c r="N7" s="3">
+        <v>15500</v>
+      </c>
       <c r="O7" s="3"/>
     </row>
     <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1384,7 +1622,10 @@
         <f>7400+9400</f>
         <v>16800</v>
       </c>
-      <c r="N8" s="3"/>
+      <c r="N8" s="3">
+        <f>7100+12400</f>
+        <v>19500</v>
+      </c>
       <c r="O8" s="3"/>
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1420,7 +1661,9 @@
         <f>2600+1800+6500</f>
         <v>10900</v>
       </c>
-      <c r="N9" s="3"/>
+      <c r="N9" s="3">
+        <v>6400</v>
+      </c>
       <c r="O9" s="3"/>
     </row>
     <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1450,7 +1693,9 @@
       <c r="M10" s="3">
         <v>8200</v>
       </c>
-      <c r="N10" s="3"/>
+      <c r="N10" s="3">
+        <v>8000</v>
+      </c>
       <c r="O10" s="3"/>
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1480,7 +1725,9 @@
       <c r="M11" s="3">
         <v>2900</v>
       </c>
-      <c r="N11" s="3"/>
+      <c r="N11" s="3">
+        <v>3500</v>
+      </c>
       <c r="O11" s="3"/>
     </row>
     <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1510,7 +1757,9 @@
       <c r="M12" s="3">
         <v>4800</v>
       </c>
-      <c r="N12" s="3"/>
+      <c r="N12" s="3">
+        <v>4700</v>
+      </c>
       <c r="O12" s="3"/>
     </row>
     <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1540,7 +1789,9 @@
       <c r="M13" s="3">
         <v>1900</v>
       </c>
-      <c r="N13" s="3"/>
+      <c r="N13" s="3">
+        <v>1700</v>
+      </c>
       <c r="O13" s="3"/>
     </row>
     <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1570,7 +1821,9 @@
       <c r="M14" s="3">
         <v>1100</v>
       </c>
-      <c r="N14" s="3"/>
+      <c r="N14" s="3">
+        <v>1000</v>
+      </c>
       <c r="O14" s="3"/>
     </row>
     <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1600,7 +1853,9 @@
       <c r="M15" s="3">
         <v>1200</v>
       </c>
-      <c r="N15" s="3"/>
+      <c r="N15" s="3">
+        <v>1100</v>
+      </c>
       <c r="O15" s="3"/>
     </row>
     <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1630,7 +1885,9 @@
       <c r="M16" s="3">
         <v>1700</v>
       </c>
-      <c r="N16" s="3"/>
+      <c r="N16" s="3">
+        <v>1900</v>
+      </c>
       <c r="O16" s="3"/>
     </row>
     <row r="17" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1665,7 +1922,10 @@
         <f>3900+500</f>
         <v>4400</v>
       </c>
-      <c r="N17" s="3"/>
+      <c r="N17" s="3">
+        <f>4400+300</f>
+        <v>4700</v>
+      </c>
       <c r="O17" s="3"/>
     </row>
     <row r="18" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1695,7 +1955,9 @@
       <c r="M18" s="3">
         <v>2700</v>
       </c>
-      <c r="N18" s="3"/>
+      <c r="N18" s="3">
+        <v>2500</v>
+      </c>
       <c r="O18" s="3"/>
     </row>
     <row r="19" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1725,7 +1987,9 @@
       <c r="M19" s="3">
         <v>2800</v>
       </c>
-      <c r="N19" s="3"/>
+      <c r="N19" s="3">
+        <v>2700</v>
+      </c>
       <c r="O19" s="3"/>
     </row>
     <row r="20" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1755,7 +2019,9 @@
       <c r="M20" s="3">
         <v>2800</v>
       </c>
-      <c r="N20" s="3"/>
+      <c r="N20" s="3">
+        <v>3100</v>
+      </c>
       <c r="O20" s="3"/>
     </row>
     <row r="21" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1785,7 +2051,9 @@
       <c r="M21" s="3">
         <v>2000</v>
       </c>
-      <c r="N21" s="3"/>
+      <c r="N21" s="3">
+        <v>2000</v>
+      </c>
       <c r="O21" s="3"/>
     </row>
     <row r="22" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1815,7 +2083,9 @@
       <c r="M22" s="3">
         <v>1800</v>
       </c>
-      <c r="N22" s="3"/>
+      <c r="N22" s="3">
+        <v>1700</v>
+      </c>
       <c r="O22" s="3"/>
     </row>
     <row r="23" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1845,7 +2115,9 @@
       <c r="M23" s="3">
         <v>1400</v>
       </c>
-      <c r="N23" s="3"/>
+      <c r="N23" s="3">
+        <v>1400</v>
+      </c>
       <c r="O23" s="3"/>
     </row>
     <row r="24" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1875,7 +2147,9 @@
       <c r="M24" s="3">
         <v>900</v>
       </c>
-      <c r="N24" s="3"/>
+      <c r="N24" s="3">
+        <v>2300</v>
+      </c>
       <c r="O24" s="3"/>
     </row>
     <row r="25" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1905,7 +2179,9 @@
       <c r="M25" s="3">
         <v>2200</v>
       </c>
-      <c r="N25" s="3"/>
+      <c r="N25" s="3">
+        <v>2200</v>
+      </c>
       <c r="O25" s="3"/>
     </row>
     <row r="26" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1967,8 +2243,12 @@
         <f>86079-H28</f>
         <v>47526</v>
       </c>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
+      <c r="J28" s="3">
+        <v>52700</v>
+      </c>
+      <c r="K28" s="3">
+        <v>58100</v>
+      </c>
       <c r="L28" s="3">
         <v>25924</v>
       </c>
@@ -1976,7 +2256,9 @@
         <f>51440-L28</f>
         <v>25516</v>
       </c>
-      <c r="N28" s="3"/>
+      <c r="N28" s="3">
+        <v>33400</v>
+      </c>
       <c r="O28" s="3"/>
     </row>
     <row r="29" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2023,8 +2305,12 @@
         <f>+I27+I28</f>
         <v>221411</v>
       </c>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
+      <c r="J30" s="5">
+        <v>287300</v>
+      </c>
+      <c r="K30" s="5">
+        <v>322300</v>
+      </c>
       <c r="L30" s="5">
         <f>SUM(L27:L29)</f>
         <v>360555</v>
@@ -2035,7 +2321,7 @@
       </c>
       <c r="N30" s="5">
         <f t="shared" ref="N30:O30" si="0">SUM(N27:N29)</f>
-        <v>0</v>
+        <v>33400</v>
       </c>
       <c r="O30" s="5">
         <f t="shared" si="0"/>
@@ -2067,7 +2353,9 @@
         <f>194247-L31</f>
         <v>79823</v>
       </c>
-      <c r="N31" s="3"/>
+      <c r="N31" s="3">
+        <v>69100</v>
+      </c>
       <c r="O31" s="3"/>
     </row>
     <row r="32" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2097,7 +2385,10 @@
         <f>+M30-M31</f>
         <v>155788</v>
       </c>
-      <c r="N32" s="3"/>
+      <c r="N32" s="3">
+        <f>+N30-N31</f>
+        <v>-35700</v>
+      </c>
       <c r="O32" s="3"/>
     </row>
     <row r="33" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2125,7 +2416,9 @@
         <f>35286-L33</f>
         <v>18496</v>
       </c>
-      <c r="N33" s="3"/>
+      <c r="N33" s="3">
+        <v>18800</v>
+      </c>
       <c r="O33" s="3"/>
     </row>
     <row r="34" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2153,7 +2446,9 @@
         <f>67685-L34</f>
         <v>33819</v>
       </c>
-      <c r="N34" s="3"/>
+      <c r="N34" s="3">
+        <v>36700</v>
+      </c>
       <c r="O34" s="3"/>
     </row>
     <row r="35" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2181,7 +2476,9 @@
         <f>12001-L35</f>
         <v>3534</v>
       </c>
-      <c r="N35" s="3"/>
+      <c r="N35" s="3">
+        <v>3800</v>
+      </c>
       <c r="O35" s="3"/>
     </row>
     <row r="36" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2211,7 +2508,10 @@
         <f>SUM(M33:M35)</f>
         <v>55849</v>
       </c>
-      <c r="N36" s="3"/>
+      <c r="N36" s="3">
+        <f>SUM(N33:N35)</f>
+        <v>59300</v>
+      </c>
       <c r="O36" s="3"/>
     </row>
     <row r="37" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2241,7 +2541,10 @@
         <f>M32-M36</f>
         <v>99939</v>
       </c>
-      <c r="N37" s="3"/>
+      <c r="N37" s="3">
+        <f>N32-N36</f>
+        <v>-95000</v>
+      </c>
       <c r="O37" s="3"/>
     </row>
     <row r="38" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2301,7 +2604,10 @@
         <f>+M37+M38</f>
         <v>100712</v>
       </c>
-      <c r="N39" s="3"/>
+      <c r="N39" s="3">
+        <f>+N37+N38</f>
+        <v>-95000</v>
+      </c>
       <c r="O39" s="3"/>
     </row>
     <row r="40" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2359,7 +2665,10 @@
         <f>+M39-M40</f>
         <v>72378</v>
       </c>
-      <c r="N41" s="3"/>
+      <c r="N41" s="3">
+        <f>+N39-N40</f>
+        <v>-95000</v>
+      </c>
       <c r="O41" s="3"/>
     </row>
     <row r="45" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2817,8 +3126,12 @@
       <c r="L67" s="3">
         <v>7642</v>
       </c>
-      <c r="M67" s="3"/>
-      <c r="N67" s="3"/>
+      <c r="M67" s="3">
+        <v>7791</v>
+      </c>
+      <c r="N67" s="3">
+        <v>7797</v>
+      </c>
       <c r="O67" s="3"/>
     </row>
   </sheetData>

--- a/4519 Chugai.xlsx
+++ b/4519 Chugai.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A47BF8B-D42D-45DF-ABEB-0CE2E15703F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF2608C-9834-404E-9486-9AD9D9AF62B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25275" yWindow="2745" windowWidth="24870" windowHeight="17595" xr2:uid="{3564809F-01A6-46D3-96C5-46308A521655}"/>
+    <workbookView xWindow="-51645" yWindow="0" windowWidth="25365" windowHeight="17685" activeTab="1" xr2:uid="{3564809F-01A6-46D3-96C5-46308A521655}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="127">
   <si>
     <t>Price JPY</t>
   </si>
@@ -351,9 +351,6 @@
     <t>Tecentriq (atezolizumab)</t>
   </si>
   <si>
-    <t>crovalimab</t>
-  </si>
-  <si>
     <t>Avastin (bevacizumab)</t>
   </si>
   <si>
@@ -397,12 +394,36 @@
   </si>
   <si>
     <t>SHP2</t>
+  </si>
+  <si>
+    <t>Q123</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>crovalimab (fka SKY59/RG6107)</t>
+  </si>
+  <si>
+    <t>PNH</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>Q223</t>
+  </si>
+  <si>
+    <t>Q323</t>
+  </si>
+  <si>
+    <t>Q423</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -532,7 +553,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -554,14 +575,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{E74509E6-4165-43DD-96C5-1323575A7639}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -577,16 +599,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>41671</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>17859</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>59531</xdr:rowOff>
+      <xdr:rowOff>23813</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>41671</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>17859</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>41671</xdr:rowOff>
+      <xdr:rowOff>5953</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -601,7 +623,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8935640" y="59531"/>
+          <a:off x="10126265" y="23813"/>
           <a:ext cx="0" cy="12197953"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -927,14 +949,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C587E22-4E4C-49B0-BEBE-68FEA42F09BE}">
   <dimension ref="B2:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
@@ -964,13 +986,13 @@
       <c r="I2" t="s">
         <v>0</v>
       </c>
-      <c r="J2">
-        <v>3626</v>
+      <c r="J2" s="1">
+        <v>3815</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C3" t="s">
         <v>77</v>
@@ -983,10 +1005,10 @@
         <v>1</v>
       </c>
       <c r="J3" s="1">
-        <v>1644.7253820000001</v>
+        <v>1645.0686639999999</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
@@ -1005,7 +1027,7 @@
       </c>
       <c r="J4" s="1">
         <f>+J2*J3</f>
-        <v>5963774.2351320004</v>
+        <v>6275936.95316</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
@@ -1064,7 +1086,7 @@
       </c>
       <c r="J7" s="1">
         <f>+J4-J5+J6</f>
-        <v>5416657.2351320004</v>
+        <v>5728819.95316</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
@@ -1210,133 +1232,102 @@
       <c r="B23" s="6"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
+      <c r="E23" s="7" t="s">
+        <v>123</v>
+      </c>
       <c r="F23" s="7"/>
       <c r="G23" s="8"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
+        <v>121</v>
+      </c>
+      <c r="C24" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" t="s">
+        <v>120</v>
+      </c>
       <c r="G24" s="10"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
+        <v>105</v>
+      </c>
       <c r="G25" s="10"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B26" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
+        <v>106</v>
+      </c>
       <c r="G26" s="10"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
+        <v>107</v>
+      </c>
       <c r="G27" s="10"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B28" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
+        <v>108</v>
+      </c>
       <c r="G28" s="10"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
+        <v>109</v>
+      </c>
       <c r="G29" s="10"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B30" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
+        <v>110</v>
+      </c>
       <c r="G30" s="10"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B31" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
+        <v>111</v>
+      </c>
       <c r="G31" s="10"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B32" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" t="s">
         <v>116</v>
       </c>
-      <c r="C32" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
+      <c r="D32" t="s">
+        <v>116</v>
+      </c>
       <c r="G32" s="10"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" t="s">
         <v>118</v>
       </c>
-      <c r="C33" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
       <c r="G33" s="10"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B34" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" t="s">
         <v>114</v>
       </c>
-      <c r="C34" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
       <c r="G34" s="10"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B35" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
@@ -1352,13 +1343,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{116815EA-00C2-4327-B106-FFC6B3AC13D1}">
-  <dimension ref="A1:O67"/>
+  <dimension ref="A1:S67"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="F20" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N41" sqref="N41"/>
+      <selection pane="bottomRight" activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1371,12 +1362,12 @@
     <col min="14" max="15" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
@@ -1416,8 +1407,20 @@
       <c r="O2" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>61</v>
       </c>
@@ -1444,10 +1447,17 @@
       <c r="M3" s="3">
         <v>0</v>
       </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N3" s="3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
+        <v>142800</v>
+      </c>
+      <c r="P3" s="1">
+        <v>81200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>62</v>
       </c>
@@ -1484,9 +1494,16 @@
         <f>13100+44000</f>
         <v>57100</v>
       </c>
-      <c r="O4" s="3"/>
-    </row>
-    <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O4" s="3">
+        <f>14100+58700</f>
+        <v>72800</v>
+      </c>
+      <c r="P4" s="1">
+        <f>12400+46000</f>
+        <v>58400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>63</v>
       </c>
@@ -1523,9 +1540,16 @@
         <f>10600+16800</f>
         <v>27400</v>
       </c>
-      <c r="O5" s="3"/>
-    </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O5" s="3">
+        <f>11500+50300</f>
+        <v>61800</v>
+      </c>
+      <c r="P5" s="1">
+        <f>9900+31800</f>
+        <v>41700</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>52</v>
       </c>
@@ -1555,9 +1579,14 @@
       <c r="N6" s="3">
         <v>16700</v>
       </c>
-      <c r="O6" s="3"/>
-    </row>
-    <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O6" s="3">
+        <v>16600</v>
+      </c>
+      <c r="P6" s="1">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>53</v>
       </c>
@@ -1587,9 +1616,14 @@
       <c r="N7" s="3">
         <v>15500</v>
       </c>
-      <c r="O7" s="3"/>
-    </row>
-    <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O7" s="3">
+        <v>17100</v>
+      </c>
+      <c r="P7" s="1">
+        <v>15100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>55</v>
       </c>
@@ -1626,9 +1660,16 @@
         <f>7100+12400</f>
         <v>19500</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <f>8000+13500</f>
+        <v>21500</v>
+      </c>
+      <c r="P8" s="1">
+        <f>6600+16700</f>
+        <v>23300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
@@ -1664,9 +1705,16 @@
       <c r="N9" s="3">
         <v>6400</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O9" s="3">
+        <f>2100+9800+2600</f>
+        <v>14500</v>
+      </c>
+      <c r="P9" s="1">
+        <f>1800+13100+1900</f>
+        <v>16800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>54</v>
       </c>
@@ -1696,9 +1744,14 @@
       <c r="N10" s="3">
         <v>8000</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O10" s="3">
+        <v>8700</v>
+      </c>
+      <c r="P10" s="1">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>56</v>
       </c>
@@ -1728,9 +1781,14 @@
       <c r="N11" s="3">
         <v>3500</v>
       </c>
-      <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O11" s="3">
+        <v>6400</v>
+      </c>
+      <c r="P11" s="1">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>57</v>
       </c>
@@ -1760,9 +1818,14 @@
       <c r="N12" s="3">
         <v>4700</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O12" s="3">
+        <v>4500</v>
+      </c>
+      <c r="P12" s="1">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>58</v>
       </c>
@@ -1792,9 +1855,14 @@
       <c r="N13" s="3">
         <v>1700</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>1700</v>
+      </c>
+      <c r="P13" s="1">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>59</v>
       </c>
@@ -1824,9 +1892,14 @@
       <c r="N14" s="3">
         <v>1000</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P14" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>60</v>
       </c>
@@ -1856,9 +1929,14 @@
       <c r="N15" s="3">
         <v>1100</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P15" s="1">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>83</v>
       </c>
@@ -1888,9 +1966,14 @@
       <c r="N16" s="3">
         <v>1900</v>
       </c>
-      <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O16" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P16" s="1">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>64</v>
       </c>
@@ -1926,9 +2009,16 @@
         <f>4400+300</f>
         <v>4700</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O17" s="3">
+        <f>5200+800</f>
+        <v>6000</v>
+      </c>
+      <c r="P17" s="1">
+        <f>4700+700</f>
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>65</v>
       </c>
@@ -1958,9 +2048,14 @@
       <c r="N18" s="3">
         <v>2500</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O18" s="3">
+        <v>2600</v>
+      </c>
+      <c r="P18" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>66</v>
       </c>
@@ -1990,9 +2085,14 @@
       <c r="N19" s="3">
         <v>2700</v>
       </c>
-      <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O19" s="3">
+        <v>2800</v>
+      </c>
+      <c r="P19" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>67</v>
       </c>
@@ -2022,9 +2122,14 @@
       <c r="N20" s="3">
         <v>3100</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>3500</v>
+      </c>
+      <c r="P20" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>68</v>
       </c>
@@ -2054,9 +2159,14 @@
       <c r="N21" s="3">
         <v>2000</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O21" s="3">
+        <v>2100</v>
+      </c>
+      <c r="P21" s="1">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>69</v>
       </c>
@@ -2088,7 +2198,7 @@
       </c>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>70</v>
       </c>
@@ -2120,7 +2230,7 @@
       </c>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>86</v>
       </c>
@@ -2150,9 +2260,14 @@
       <c r="N24" s="3">
         <v>2300</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>3200</v>
+      </c>
+      <c r="P24" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>84</v>
       </c>
@@ -2182,9 +2297,14 @@
       <c r="N25" s="3">
         <v>2200</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>2000</v>
+      </c>
+      <c r="P25" s="1">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -2199,7 +2319,7 @@
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>21</v>
       </c>
@@ -2224,10 +2344,20 @@
         <f>452811-L27</f>
         <v>210095</v>
       </c>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N27" s="3">
+        <f>SUM(N3:N25)</f>
+        <v>187100</v>
+      </c>
+      <c r="O27" s="3">
+        <f>SUM(O3:O25)</f>
+        <v>394500</v>
+      </c>
+      <c r="P27" s="3">
+        <f>SUM(P3:P25)</f>
+        <v>291600</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2261,7 +2391,7 @@
       </c>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2286,9 +2416,14 @@
         <v>0</v>
       </c>
       <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>43900</v>
+      </c>
+      <c r="P29" s="1">
+        <v>20700</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
         <v>8</v>
       </c>
@@ -2320,15 +2455,31 @@
         <v>235611</v>
       </c>
       <c r="N30" s="5">
-        <f t="shared" ref="N30:O30" si="0">SUM(N27:N29)</f>
-        <v>33400</v>
+        <f t="shared" ref="N30:S30" si="0">SUM(N27:N29)</f>
+        <v>220500</v>
       </c>
       <c r="O30" s="5">
         <f t="shared" si="0"/>
+        <v>438400</v>
+      </c>
+      <c r="P30" s="5">
+        <f t="shared" si="0"/>
+        <v>312300</v>
+      </c>
+      <c r="Q30" s="5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R30" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S30" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>24</v>
       </c>
@@ -2358,7 +2509,7 @@
       </c>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>25</v>
       </c>
@@ -2387,7 +2538,7 @@
       </c>
       <c r="N32" s="3">
         <f>+N30-N31</f>
-        <v>-35700</v>
+        <v>151400</v>
       </c>
       <c r="O32" s="3"/>
     </row>
@@ -2543,7 +2694,7 @@
       </c>
       <c r="N37" s="3">
         <f>N32-N36</f>
-        <v>-95000</v>
+        <v>92100</v>
       </c>
       <c r="O37" s="3"/>
     </row>
@@ -2606,7 +2757,7 @@
       </c>
       <c r="N39" s="3">
         <f>+N37+N38</f>
-        <v>-95000</v>
+        <v>92100</v>
       </c>
       <c r="O39" s="3"/>
     </row>
@@ -2667,7 +2818,7 @@
       </c>
       <c r="N41" s="3">
         <f>+N39-N40</f>
-        <v>-95000</v>
+        <v>92100</v>
       </c>
       <c r="O41" s="3"/>
     </row>

--- a/4519 Chugai.xlsx
+++ b/4519 Chugai.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF2608C-9834-404E-9486-9AD9D9AF62B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70469DA4-039F-4322-A393-709F309F8903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51645" yWindow="0" windowWidth="25365" windowHeight="17685" activeTab="1" xr2:uid="{3564809F-01A6-46D3-96C5-46308A521655}"/>
+    <workbookView xWindow="-27435" yWindow="1140" windowWidth="26490" windowHeight="19650" xr2:uid="{3564809F-01A6-46D3-96C5-46308A521655}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="131">
   <si>
     <t>Price JPY</t>
   </si>
@@ -418,6 +418,18 @@
   </si>
   <si>
     <t>Q423</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
   </si>
 </sst>
 </file>
@@ -651,9 +663,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -691,7 +703,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -797,7 +809,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -939,7 +951,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -949,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C587E22-4E4C-49B0-BEBE-68FEA42F09BE}">
   <dimension ref="B2:K35"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -961,7 +973,7 @@
     <col min="4" max="4" width="10.42578125" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.2">
@@ -987,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>3815</v>
+        <v>6936</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
@@ -1005,10 +1017,10 @@
         <v>1</v>
       </c>
       <c r="J3" s="1">
-        <v>1645.0686639999999</v>
+        <v>1645.3926369999999</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
@@ -1027,7 +1039,7 @@
       </c>
       <c r="J4" s="1">
         <f>+J2*J3</f>
-        <v>6275936.95316</v>
+        <v>11412443.330232</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
@@ -1045,11 +1057,10 @@
         <v>3</v>
       </c>
       <c r="J5" s="1">
-        <f>274043+271252+1822</f>
-        <v>547117</v>
+        <v>815658</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
@@ -1070,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
@@ -1086,7 +1097,7 @@
       </c>
       <c r="J7" s="1">
         <f>+J4-J5+J6</f>
-        <v>5728819.95316</v>
+        <v>10596785.330232</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
@@ -1343,13 +1354,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{116815EA-00C2-4327-B106-FFC6B3AC13D1}">
-  <dimension ref="A1:S67"/>
+  <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="M33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q21" sqref="Q21"/>
+      <selection pane="bottomRight" activeCell="U45" sqref="U45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1360,14 +1371,15 @@
     <col min="12" max="12" width="9.7109375" style="2" customWidth="1"/>
     <col min="13" max="13" width="9.42578125" style="2" customWidth="1"/>
     <col min="14" max="15" width="9.140625" style="2"/>
+    <col min="21" max="21" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
@@ -1419,8 +1431,20 @@
       <c r="S2" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>61</v>
       </c>
@@ -1457,7 +1481,7 @@
         <v>81200</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>62</v>
       </c>
@@ -1503,7 +1527,7 @@
         <v>58400</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>63</v>
       </c>
@@ -1549,7 +1573,7 @@
         <v>41700</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>52</v>
       </c>
@@ -1586,7 +1610,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>53</v>
       </c>
@@ -1623,7 +1647,7 @@
         <v>15100</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>55</v>
       </c>
@@ -1669,7 +1693,7 @@
         <v>23300</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
@@ -1714,7 +1738,7 @@
         <v>16800</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>54</v>
       </c>
@@ -1751,7 +1775,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>56</v>
       </c>
@@ -1788,7 +1812,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>57</v>
       </c>
@@ -1825,7 +1849,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="13" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>58</v>
       </c>
@@ -1862,7 +1886,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>59</v>
       </c>
@@ -1899,7 +1923,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>60</v>
       </c>
@@ -1936,7 +1960,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>83</v>
       </c>
@@ -1973,7 +1997,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="17" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>64</v>
       </c>
@@ -2018,7 +2042,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="18" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>65</v>
       </c>
@@ -2055,7 +2079,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="19" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>66</v>
       </c>
@@ -2092,7 +2116,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="20" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>67</v>
       </c>
@@ -2129,7 +2153,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="21" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>68</v>
       </c>
@@ -2166,7 +2190,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="22" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>69</v>
       </c>
@@ -2198,7 +2222,7 @@
       </c>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>70</v>
       </c>
@@ -2230,7 +2254,7 @@
       </c>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>86</v>
       </c>
@@ -2267,7 +2291,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="25" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>84</v>
       </c>
@@ -2304,7 +2328,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="26" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -2319,7 +2343,7 @@
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>21</v>
       </c>
@@ -2357,7 +2381,7 @@
         <v>291600</v>
       </c>
     </row>
-    <row r="28" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2391,7 +2415,7 @@
       </c>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2423,7 +2447,7 @@
         <v>20700</v>
       </c>
     </row>
-    <row r="30" spans="2:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
         <v>8</v>
       </c>
@@ -2467,8 +2491,8 @@
         <v>312300</v>
       </c>
       <c r="Q30" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>579657-P30</f>
+        <v>267357</v>
       </c>
       <c r="R30" s="5">
         <f t="shared" si="0"/>
@@ -2478,8 +2502,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U30" s="4">
+        <f>552860-T30</f>
+        <v>552860</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>24</v>
       </c>
@@ -2509,7 +2537,7 @@
       </c>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>25</v>
       </c>
@@ -2542,7 +2570,7 @@
       </c>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2572,7 +2600,7 @@
       </c>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2602,7 +2630,7 @@
       </c>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2632,7 +2660,7 @@
       </c>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>26</v>
       </c>
@@ -2665,7 +2693,7 @@
       </c>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>27</v>
       </c>
@@ -2698,7 +2726,7 @@
       </c>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>34</v>
       </c>
@@ -2728,7 +2756,7 @@
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>33</v>
       </c>
@@ -2761,7 +2789,7 @@
       </c>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2789,7 +2817,7 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
         <v>31</v>
       </c>
@@ -2822,7 +2850,7 @@
       </c>
       <c r="O41" s="3"/>
     </row>
-    <row r="45" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>36</v>
       </c>
@@ -2845,8 +2873,12 @@
       </c>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U45" s="1">
+        <f>393761+421897</f>
+        <v>815658</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
         <v>37</v>
       </c>
@@ -2867,8 +2899,11 @@
       </c>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U46" s="1">
+        <v>44426</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>38</v>
       </c>
@@ -2891,8 +2926,12 @@
       </c>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U47" s="1">
+        <f>586+65758</f>
+        <v>66344</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
         <v>39</v>
       </c>
@@ -2913,8 +2952,11 @@
       </c>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U48" s="1">
+        <v>349656</v>
+      </c>
+    </row>
+    <row r="49" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
         <v>40</v>
       </c>
@@ -2935,8 +2977,11 @@
       </c>
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U49" s="1">
+        <v>265704</v>
+      </c>
+    </row>
+    <row r="50" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
         <v>35</v>
       </c>
@@ -2957,8 +3002,11 @@
       </c>
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U50" s="1">
+        <v>420292</v>
+      </c>
+    </row>
+    <row r="51" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
         <v>45</v>
       </c>
@@ -2979,8 +3027,11 @@
       </c>
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U51" s="1">
+        <v>59797</v>
+      </c>
+    </row>
+    <row r="52" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
         <v>44</v>
       </c>
@@ -3001,8 +3052,11 @@
       </c>
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U52" s="1">
+        <v>7995</v>
+      </c>
+    </row>
+    <row r="53" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
         <v>43</v>
       </c>
@@ -3023,8 +3077,11 @@
       </c>
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U53" s="1">
+        <v>20350</v>
+      </c>
+    </row>
+    <row r="54" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3102,11 @@
       </c>
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U54" s="1">
+        <v>9941</v>
+      </c>
+    </row>
+    <row r="55" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
         <v>41</v>
       </c>
@@ -3064,13 +3124,43 @@
         <v>1584949</v>
       </c>
       <c r="M55" s="3">
-        <f t="shared" ref="M55" si="1">SUM(M45:M54)</f>
+        <f t="shared" ref="M55:U55" si="1">SUM(M45:M54)</f>
         <v>1625603</v>
       </c>
-      <c r="N55" s="3"/>
-      <c r="O55" s="3"/>
-    </row>
-    <row r="57" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N55" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O55" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P55" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q55" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R55" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S55" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T55" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U55" s="3">
+        <f t="shared" si="1"/>
+        <v>2060163</v>
+      </c>
+    </row>
+    <row r="57" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
         <v>46</v>
       </c>
@@ -3091,8 +3181,11 @@
       </c>
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U57" s="1">
+        <v>136084</v>
+      </c>
+    </row>
+    <row r="58" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
         <v>47</v>
       </c>
@@ -3113,8 +3206,11 @@
       </c>
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U58" s="1">
+        <v>78954</v>
+      </c>
+    </row>
+    <row r="59" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
         <v>48</v>
       </c>
@@ -3137,8 +3233,12 @@
       </c>
       <c r="N59" s="3"/>
       <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U59" s="1">
+        <f>2414+2895+4906</f>
+        <v>10215</v>
+      </c>
+    </row>
+    <row r="60" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
         <v>38</v>
       </c>
@@ -3160,8 +3260,11 @@
       </c>
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U60" s="1">
+        <v>72689</v>
+      </c>
+    </row>
+    <row r="61" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
         <v>51</v>
       </c>
@@ -3182,8 +3285,11 @@
       </c>
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U61" s="1">
+        <v>6582</v>
+      </c>
+    </row>
+    <row r="62" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
         <v>44</v>
       </c>
@@ -3204,8 +3310,11 @@
       </c>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U62" s="1">
+        <v>3949</v>
+      </c>
+    </row>
+    <row r="63" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
         <v>50</v>
       </c>
@@ -3226,8 +3335,11 @@
       </c>
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U63" s="1">
+        <v>1751691</v>
+      </c>
+    </row>
+    <row r="64" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
         <v>49</v>
       </c>
@@ -3250,6 +3362,10 @@
       </c>
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
+      <c r="U64" s="1">
+        <f>SUM(U57:U63)</f>
+        <v>2060164</v>
+      </c>
     </row>
     <row r="67" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
